--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.thevenet\PhpstormProjects\untitled5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47485B8F-CBB6-4397-86C5-ABC0FF73FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42480DEF-461B-4265-A9E9-CE4A1E7F8DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3990" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{5B1F9352-606B-4A97-B055-F467C123F5D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>prix</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>livraison</t>
+  </si>
+  <si>
+    <t>Produit</t>
+  </si>
+  <si>
+    <t>chaussure</t>
+  </si>
+  <si>
+    <t>carotte</t>
+  </si>
+  <si>
+    <t>radis</t>
+  </si>
+  <si>
+    <t>sopalin</t>
+  </si>
+  <si>
+    <t>tasse</t>
   </si>
 </sst>
 </file>
@@ -416,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14EC2A6-FB83-480A-A4C3-15C8142D1600}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +452,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>5</v>
       </c>
@@ -445,8 +466,11 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>10</v>
       </c>
@@ -456,8 +480,11 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -467,8 +494,11 @@
       <c r="C4">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -478,8 +508,11 @@
       <c r="C5">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>25</v>
       </c>
@@ -488,6 +521,9 @@
       </c>
       <c r="C6">
         <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.thevenet\PhpstormProjects\untitled5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42480DEF-461B-4265-A9E9-CE4A1E7F8DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20FAFB-36FB-47DF-B59B-2EEF0A78E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{5B1F9352-606B-4A97-B055-F467C123F5D1}"/>
+    <workbookView xWindow="2595" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{5B1F9352-606B-4A97-B055-F467C123F5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>prix</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14EC2A6-FB83-480A-A4C3-15C8142D1600}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -526,6 +526,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.thevenet\PhpstormProjects\untitled5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C20FAFB-36FB-47DF-B59B-2EEF0A78E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025C44D0-2F88-4BCF-8269-BC7358F2E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{5B1F9352-606B-4A97-B055-F467C123F5D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>prix</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>tasse</t>
+  </si>
+  <si>
+    <t>poid</t>
   </si>
 </sst>
 </file>
@@ -434,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14EC2A6-FB83-480A-A4C3-15C8142D1600}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +458,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>5</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>10</v>
       </c>
@@ -483,8 +492,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>7</v>
       </c>
@@ -497,8 +509,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -511,8 +526,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>25</v>
       </c>
@@ -525,8 +543,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -539,8 +560,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -552,6 +576,9 @@
       </c>
       <c r="D8" t="s">
         <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.thevenet\PhpstormProjects\untitled5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025C44D0-2F88-4BCF-8269-BC7358F2E57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ECB480-CC70-45FE-9703-22FB5968830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{5B1F9352-606B-4A97-B055-F467C123F5D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B1F9352-606B-4A97-B055-F467C123F5D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>prix</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>tasse</t>
-  </si>
-  <si>
-    <t>poid</t>
   </si>
 </sst>
 </file>
@@ -437,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14EC2A6-FB83-480A-A4C3-15C8142D1600}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,11 +455,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>5</v>
       </c>
@@ -475,11 +469,8 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>10</v>
       </c>
@@ -492,11 +483,8 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -509,11 +497,8 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -526,11 +511,8 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>25</v>
       </c>
@@ -543,11 +525,8 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -560,11 +539,8 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -576,9 +552,6 @@
       </c>
       <c r="D8" t="s">
         <v>6</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
